--- a/opinions/255509/255509.xlsx
+++ b/opinions/255509/255509.xlsx
@@ -22,7 +22,7 @@
     <t>author</t>
   </si>
   <si>
-    <t>recommended</t>
+    <t>recommendation</t>
   </si>
   <si>
     <t>score</t>
